--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005_template.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -94,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,34 +111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -160,32 +129,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
@@ -215,7 +158,46 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
         <color auto="1"/>
       </right>
       <top style="hair">
@@ -226,41 +208,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -271,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,68 +232,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -624,14 +556,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="9.25" style="16"/>
-    <col min="10" max="19" width="9.25" style="19"/>
-    <col min="20" max="20" width="9.25" style="15"/>
-    <col min="21" max="16384" width="9.25" style="16"/>
+    <col min="1" max="9" width="9.25" style="11"/>
+    <col min="10" max="19" width="9.25" style="14"/>
+    <col min="20" max="20" width="9.25" style="10"/>
+    <col min="21" max="16384" width="9.25" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="10.5" customHeight="1">
@@ -650,10 +584,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="10.5" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
@@ -671,212 +605,212 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="17"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="10.5" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="10.5" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="10.5" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="T6" s="17"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="6"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="10.5" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="T7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="7"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T8" s="17"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T9" s="17"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T10" s="17"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T11" s="17"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T12" s="17"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T13" s="17"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T14" s="17"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T15" s="17"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T16" s="17"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T17" s="17"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T18" s="17"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="1:20" ht="10.5" customHeight="1">
-      <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="1:20" s="15" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-    </row>
-    <row r="21" spans="1:20" s="15" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="1:20" s="15" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR005_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="振休確認表(日数管理_紐付あり_年月日)" sheetId="1" r:id="rId1"/>
@@ -262,6 +262,15 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -270,15 +279,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -560,12 +560,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="10.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="9.25" style="11"/>
-    <col min="10" max="19" width="9.25" style="14"/>
-    <col min="20" max="20" width="9.25" style="10"/>
-    <col min="21" max="16384" width="9.25" style="11"/>
+    <col min="1" max="9" width="9.21875" style="11"/>
+    <col min="10" max="19" width="9.21875" style="14"/>
+    <col min="20" max="20" width="9.21875" style="10"/>
+    <col min="21" max="16384" width="9.21875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="10.5" customHeight="1">
@@ -612,20 +612,20 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="5"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -634,20 +634,20 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="10.5" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="6"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -656,20 +656,20 @@
       <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="10.5" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="7"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
@@ -680,36 +680,36 @@
     <row r="6" spans="1:20" ht="10.5" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="6"/>
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="10.5" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="7"/>
       <c r="T7" s="12"/>
     </row>
@@ -820,7 +820,7 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　
